--- a/Measurement_Results/gel/finalData.xlsx
+++ b/Measurement_Results/gel/finalData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="28720" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="26740" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -132,15 +132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -160,22 +151,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -187,8 +167,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -472,7 +450,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,11 +498,19 @@
       <c r="A3" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3">
+        <v>0.13984052759999999</v>
+      </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
+      <c r="D3">
+        <v>0.31093370790000002</v>
+      </c>
+      <c r="E3">
+        <v>0.29279458619999998</v>
+      </c>
+      <c r="F3">
+        <v>0.29810124669999999</v>
+      </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
@@ -533,21 +519,36 @@
       <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
+      <c r="B4">
+        <v>0.32892325351288249</v>
+      </c>
+      <c r="D4">
+        <v>0.46242142476427806</v>
+      </c>
+      <c r="E4">
+        <v>0.2888102776</v>
+      </c>
+      <c r="F4">
+        <v>0.29764735050000002</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>15</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="10">
+        <v>0.26299567322901218</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5">
+        <v>0.38472762804625088</v>
+      </c>
+      <c r="E5">
+        <v>0.42056209726598509</v>
+      </c>
+      <c r="F5">
+        <v>0.36098913085901341</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -558,18 +559,20 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6">
+        <v>0.32988560389999999</v>
+      </c>
       <c r="C8" s="6">
         <v>0.28374969919999998</v>
       </c>
@@ -587,11 +590,21 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="B9">
+        <v>0.13984052759999999</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.510160273</v>
+      </c>
+      <c r="E9">
+        <v>0.44200131279999999</v>
+      </c>
+      <c r="F9">
+        <v>0.37982387249999999</v>
+      </c>
       <c r="G9" t="s">
         <v>6</v>
       </c>
@@ -600,21 +613,41 @@
       <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="B10">
+        <v>0.32892325351288249</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.57294985939999998</v>
+      </c>
+      <c r="E10">
+        <v>0.51381105849999997</v>
+      </c>
+      <c r="F10">
+        <v>0.47422380159999999</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>15</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="10">
+        <v>0.26299567322901218</v>
+      </c>
+      <c r="C11">
+        <v>0.1605518081303243</v>
+      </c>
+      <c r="D11">
+        <v>0.61546656329189986</v>
+      </c>
+      <c r="E11">
+        <v>0.48596178968068099</v>
+      </c>
+      <c r="F11">
+        <v>0.43344778539379636</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -625,18 +658,20 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6">
+        <v>0.32988560389999999</v>
+      </c>
       <c r="C14" s="6">
         <v>0.39505167559999999</v>
       </c>
@@ -654,11 +689,21 @@
       <c r="A15" s="5">
         <v>5</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
+      <c r="B15">
+        <v>0.13984052759999999</v>
+      </c>
+      <c r="C15">
+        <v>0.1781483952</v>
+      </c>
+      <c r="D15">
+        <v>0.49149012190000002</v>
+      </c>
+      <c r="E15">
+        <v>0.55705901820000003</v>
+      </c>
+      <c r="F15">
+        <v>0.52362112370000002</v>
+      </c>
       <c r="G15" t="s">
         <v>7</v>
       </c>
@@ -667,21 +712,41 @@
       <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="9"/>
+      <c r="B16">
+        <v>0.32892325351288249</v>
+      </c>
+      <c r="C16">
+        <v>0.187819553</v>
+      </c>
+      <c r="D16">
+        <v>0.56776762179999996</v>
+      </c>
+      <c r="E16">
+        <v>0.72039296500000005</v>
+      </c>
+      <c r="F16">
+        <v>0.50620990450000003</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="10">
+        <v>0.26299567322901218</v>
+      </c>
+      <c r="C17">
+        <v>0.15598046268119414</v>
+      </c>
+      <c r="D17">
+        <v>0.48162046480999177</v>
+      </c>
+      <c r="E17">
+        <v>0.58375340427455802</v>
+      </c>
+      <c r="F17">
+        <v>0.61017442175444769</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
